--- a/Design/DataTable/client_monster_group_info.xlsx
+++ b/Design/DataTable/client_monster_group_info.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D8A65F-2E0E-4F1A-99FA-19FE001E1CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAC969-A353-4BDA-BE0C-C7FFA56A60B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4065" windowWidth="21600" windowHeight="11355" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
-    <sheet name="!Norma" sheetId="1" r:id="rId1"/>
-    <sheet name="normal_desc" sheetId="2" r:id="rId2"/>
+    <sheet name="!Monster_Group" sheetId="1" r:id="rId1"/>
+    <sheet name="desc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
